--- a/result/compare_result/compare_result_0729/result-10%.xlsx
+++ b/result/compare_result/compare_result_0729/result-10%.xlsx
@@ -24,13 +24,13 @@
     <t>未迁移</t>
   </si>
   <si>
-    <t>单次迁移</t>
-  </si>
-  <si>
-    <t>传递式迁移（未调参）</t>
-  </si>
-  <si>
-    <t>传递式迁移（调参后总迭代为100）</t>
+    <t>单次迁移（大亚组样本量为10%）</t>
+  </si>
+  <si>
+    <t>单次迁移（大亚组样本量为100%）</t>
+  </si>
+  <si>
+    <t>传递式迁移（总迭代为100）</t>
   </si>
   <si>
     <t>Drg0</t>
@@ -103,7 +103,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,38 +115,66 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,9 +194,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,13 +217,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -197,67 +250,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,19 +265,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,163 +439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,21 +456,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -496,26 +474,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,8 +510,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,148 +561,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -717,10 +710,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1074,26 +1067,27 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="29.75" customWidth="1"/>
+    <col min="3" max="3" width="31.875" customWidth="1"/>
+    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1104,235 +1098,233 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>0.902</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
+        <v>0.666</v>
+      </c>
+      <c r="D2" s="1">
         <v>0.889</v>
       </c>
-      <c r="D2" s="2">
-        <v>0.91</v>
-      </c>
       <c r="E2" s="2">
-        <v>0.881</v>
+        <v>0.891</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.606</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="D3" s="1">
         <v>0.601</v>
       </c>
-      <c r="D3" s="2">
-        <v>0.619</v>
-      </c>
       <c r="E3" s="2">
-        <v>0.597</v>
+        <v>0.642</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.752</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
+        <v>0.567</v>
+      </c>
+      <c r="D4" s="1">
         <v>0.588</v>
       </c>
-      <c r="D4" s="2">
-        <v>0.636</v>
-      </c>
       <c r="E4" s="2">
-        <v>0.729</v>
+        <v>0.808</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0.581</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
+        <v>0.585</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.651</v>
       </c>
-      <c r="D5" s="2">
-        <v>0.647</v>
-      </c>
       <c r="E5" s="2">
-        <v>0.583</v>
+        <v>0.566</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0.564</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
+        <v>0.561</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.677</v>
       </c>
-      <c r="D6" s="2">
-        <v>0.659</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.655</v>
-      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>0.705</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
+        <v>0.629</v>
+      </c>
+      <c r="D7" s="1">
         <v>0.791</v>
       </c>
-      <c r="D7" s="2">
-        <v>0.691</v>
-      </c>
       <c r="E7" s="2">
-        <v>0.634</v>
+        <v>0.657</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>0.721</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
+        <v>0.571</v>
+      </c>
+      <c r="D8" s="1">
         <v>0.783</v>
       </c>
-      <c r="D8" s="2">
-        <v>0.733</v>
-      </c>
       <c r="E8" s="2">
-        <v>0.694</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>0.753</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
+        <v>0.585</v>
+      </c>
+      <c r="D9" s="1">
         <v>0.791</v>
       </c>
-      <c r="D9" s="2">
-        <v>0.729</v>
-      </c>
       <c r="E9" s="2">
-        <v>0.78</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>0.719</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
+        <v>0.666</v>
+      </c>
+      <c r="D10" s="1">
         <v>0.779</v>
       </c>
-      <c r="D10" s="2">
-        <v>0.692</v>
-      </c>
       <c r="E10" s="2">
-        <v>0.721</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>0.542</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
+        <v>0.603</v>
+      </c>
+      <c r="D11" s="1">
         <v>0.577</v>
       </c>
-      <c r="D11" s="2">
-        <v>0.575</v>
-      </c>
       <c r="E11" s="2">
-        <v>0.571</v>
+        <v>0.574</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>0.599</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
+        <v>0.567</v>
+      </c>
+      <c r="D12" s="1">
         <v>0.654</v>
       </c>
-      <c r="D12" s="2">
-        <v>0.627</v>
-      </c>
       <c r="E12" s="2">
-        <v>0.623</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>0.705</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
+        <v>0.627</v>
+      </c>
+      <c r="D13" s="1">
         <v>0.73</v>
       </c>
-      <c r="D13" s="2">
-        <v>0.687</v>
-      </c>
       <c r="E13" s="2">
-        <v>0.694</v>
+        <v>0.688</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>0.591</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
+        <v>0.551</v>
+      </c>
+      <c r="D14" s="1">
         <v>0.681</v>
       </c>
-      <c r="D14" s="2">
-        <v>0.619</v>
-      </c>
       <c r="E14" s="2">
-        <v>0.695</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>0.789</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
+        <v>0.491</v>
+      </c>
+      <c r="D15" s="1">
         <v>0.836</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.813</v>
       </c>
       <c r="E15" s="2">
         <v>0.791</v>
@@ -1342,102 +1334,102 @@
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>0.523</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
+        <v>0.617</v>
+      </c>
+      <c r="D16" s="1">
         <v>0.689</v>
       </c>
-      <c r="D16" s="2">
-        <v>0.654</v>
-      </c>
       <c r="E16" s="2">
-        <v>0.688</v>
+        <v>0.559</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>0.814</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
+        <v>0.641</v>
+      </c>
+      <c r="D17" s="1">
         <v>0.847</v>
       </c>
-      <c r="D17" s="2">
-        <v>0.833</v>
-      </c>
       <c r="E17" s="2">
-        <v>0.817</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>0.583</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
+        <v>0.615</v>
+      </c>
+      <c r="D18" s="1">
         <v>0.684</v>
       </c>
-      <c r="D18" s="2">
-        <v>0.66</v>
-      </c>
       <c r="E18" s="2">
-        <v>0.68</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>0.493</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
+        <v>0.606</v>
+      </c>
+      <c r="D19" s="1">
         <v>0.586</v>
       </c>
-      <c r="D19" s="2">
-        <v>0.599</v>
-      </c>
       <c r="E19" s="2">
-        <v>0.635</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>0.617</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
+        <v>0.645</v>
+      </c>
+      <c r="D20" s="1">
         <v>0.707</v>
       </c>
-      <c r="D20" s="2">
-        <v>0.686</v>
-      </c>
       <c r="E20" s="2">
-        <v>0.687</v>
+        <v>0.605</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>0.595</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
+        <v>0.634</v>
+      </c>
+      <c r="D21" s="1">
         <v>0.697</v>
       </c>
-      <c r="D21" s="2">
-        <v>0.684</v>
-      </c>
       <c r="E21" s="2">
-        <v>0.699</v>
+        <v>0.661</v>
       </c>
     </row>
   </sheetData>

--- a/result/compare_result/compare_result_0729/result-10%.xlsx
+++ b/result/compare_result/compare_result_0729/result-10%.xlsx
@@ -30,7 +30,7 @@
     <t>单次迁移（大亚组样本量为100%）</t>
   </si>
   <si>
-    <t>传递式迁移（总迭代为100）</t>
+    <t>传递式迁移（总迭代为100，大亚组样本量和小亚组样本量都为10%）</t>
   </si>
   <si>
     <t>Drg0</t>
@@ -100,8 +100,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -112,6 +112,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -119,31 +150,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,35 +195,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -194,63 +203,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,43 +265,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,7 +433,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,127 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,30 +456,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -516,17 +492,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,6 +522,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -564,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,141 +576,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1067,14 +1070,14 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="31.875" customWidth="1"/>
     <col min="4" max="4" width="28.25" customWidth="1"/>
-    <col min="5" max="5" width="23.625" customWidth="1"/>
+    <col min="5" max="5" width="56.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1104,11 +1107,11 @@
       <c r="C2" s="1">
         <v>0.666</v>
       </c>
-      <c r="D2" s="1">
-        <v>0.889</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.891</v>
+      <c r="D2" s="2">
+        <v>0.899</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.864</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1121,11 +1124,11 @@
       <c r="C3" s="1">
         <v>0.62</v>
       </c>
-      <c r="D3" s="1">
-        <v>0.601</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.642</v>
+      <c r="D3" s="2">
+        <v>0.587</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.587</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1138,11 +1141,11 @@
       <c r="C4" s="1">
         <v>0.567</v>
       </c>
-      <c r="D4" s="1">
-        <v>0.588</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.808</v>
+      <c r="D4" s="2">
+        <v>0.595</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.721</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1155,11 +1158,11 @@
       <c r="C5" s="1">
         <v>0.585</v>
       </c>
-      <c r="D5" s="1">
-        <v>0.651</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.566</v>
+      <c r="D5" s="2">
+        <v>0.621</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.626</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1172,10 +1175,12 @@
       <c r="C6" s="1">
         <v>0.561</v>
       </c>
-      <c r="D6" s="1">
-        <v>0.677</v>
-      </c>
-      <c r="E6" s="2"/>
+      <c r="D6" s="2">
+        <v>0.669</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.567</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
@@ -1187,11 +1192,11 @@
       <c r="C7" s="1">
         <v>0.629</v>
       </c>
-      <c r="D7" s="1">
-        <v>0.791</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.657</v>
+      <c r="D7" s="2">
+        <v>0.649</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.671</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1204,11 +1209,11 @@
       <c r="C8" s="1">
         <v>0.571</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>0.783</v>
       </c>
-      <c r="E8" s="2">
-        <v>0.7</v>
+      <c r="E8" s="3">
+        <v>0.672</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1221,11 +1226,11 @@
       <c r="C9" s="1">
         <v>0.585</v>
       </c>
-      <c r="D9" s="1">
-        <v>0.791</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.737</v>
+      <c r="D9" s="2">
+        <v>0.775</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.756</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1238,11 +1243,11 @@
       <c r="C10" s="1">
         <v>0.666</v>
       </c>
-      <c r="D10" s="1">
-        <v>0.779</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.68</v>
+      <c r="D10" s="2">
+        <v>0.718</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.74</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1255,11 +1260,11 @@
       <c r="C11" s="1">
         <v>0.603</v>
       </c>
-      <c r="D11" s="1">
-        <v>0.577</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.574</v>
+      <c r="D11" s="2">
+        <v>0.548</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.565</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1272,11 +1277,11 @@
       <c r="C12" s="1">
         <v>0.567</v>
       </c>
-      <c r="D12" s="1">
-        <v>0.654</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.621</v>
+      <c r="D12" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.546</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1289,11 +1294,11 @@
       <c r="C13" s="1">
         <v>0.627</v>
       </c>
-      <c r="D13" s="1">
-        <v>0.73</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.688</v>
+      <c r="D13" s="2">
+        <v>0.703</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.684</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1306,11 +1311,11 @@
       <c r="C14" s="1">
         <v>0.551</v>
       </c>
-      <c r="D14" s="1">
-        <v>0.681</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.589</v>
+      <c r="D14" s="2">
+        <v>0.714</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.519</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1323,11 +1328,11 @@
       <c r="C15" s="1">
         <v>0.491</v>
       </c>
-      <c r="D15" s="1">
-        <v>0.836</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.791</v>
+      <c r="D15" s="2">
+        <v>0.762</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.765</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1340,11 +1345,11 @@
       <c r="C16" s="1">
         <v>0.617</v>
       </c>
-      <c r="D16" s="1">
-        <v>0.689</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.559</v>
+      <c r="D16" s="2">
+        <v>0.624</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.603</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1357,11 +1362,11 @@
       <c r="C17" s="1">
         <v>0.641</v>
       </c>
-      <c r="D17" s="1">
-        <v>0.847</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.836</v>
+      <c r="D17" s="2">
+        <v>0.819</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.801</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1374,11 +1379,11 @@
       <c r="C18" s="1">
         <v>0.615</v>
       </c>
-      <c r="D18" s="1">
-        <v>0.684</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.624</v>
+      <c r="D18" s="2">
+        <v>0.642</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.648</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1391,11 +1396,11 @@
       <c r="C19" s="1">
         <v>0.606</v>
       </c>
-      <c r="D19" s="1">
-        <v>0.586</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.602</v>
+      <c r="D19" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.511</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1408,11 +1413,11 @@
       <c r="C20" s="1">
         <v>0.645</v>
       </c>
-      <c r="D20" s="1">
-        <v>0.707</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.605</v>
+      <c r="D20" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.627</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1425,11 +1430,11 @@
       <c r="C21" s="1">
         <v>0.634</v>
       </c>
-      <c r="D21" s="1">
-        <v>0.697</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.661</v>
+      <c r="D21" s="2">
+        <v>0.722</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.614</v>
       </c>
     </row>
   </sheetData>

--- a/result/compare_result/compare_result_0729/result-10%.xlsx
+++ b/result/compare_result/compare_result_0729/result-10%.xlsx
@@ -100,8 +100,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -109,6 +109,112 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -120,130 +226,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,132 +265,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -403,13 +421,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,31 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,30 +456,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -508,16 +484,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,8 +516,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,145 +564,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1104,10 +1104,10 @@
       <c r="B2" s="1">
         <v>0.902</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.666</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="2">
+        <v>0.818</v>
+      </c>
+      <c r="D2" s="3">
         <v>0.899</v>
       </c>
       <c r="E2" s="3">
@@ -1121,10 +1121,10 @@
       <c r="B3" s="1">
         <v>0.606</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="2">
+        <v>0.578</v>
+      </c>
+      <c r="D3" s="3">
         <v>0.587</v>
       </c>
       <c r="E3" s="3">
@@ -1138,10 +1138,10 @@
       <c r="B4" s="1">
         <v>0.752</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.567</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="2">
+        <v>0.482</v>
+      </c>
+      <c r="D4" s="3">
         <v>0.595</v>
       </c>
       <c r="E4" s="3">
@@ -1155,10 +1155,10 @@
       <c r="B5" s="1">
         <v>0.581</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.585</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="2">
+        <v>0.604</v>
+      </c>
+      <c r="D5" s="3">
         <v>0.621</v>
       </c>
       <c r="E5" s="3">
@@ -1172,10 +1172,10 @@
       <c r="B6" s="1">
         <v>0.564</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.561</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="2">
+        <v>0.641</v>
+      </c>
+      <c r="D6" s="3">
         <v>0.669</v>
       </c>
       <c r="E6" s="3">
@@ -1189,10 +1189,10 @@
       <c r="B7" s="1">
         <v>0.705</v>
       </c>
-      <c r="C7" s="1">
-        <v>0.629</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="2">
+        <v>0.712</v>
+      </c>
+      <c r="D7" s="3">
         <v>0.649</v>
       </c>
       <c r="E7" s="3">
@@ -1206,10 +1206,10 @@
       <c r="B8" s="1">
         <v>0.721</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.571</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="2">
+        <v>0.738</v>
+      </c>
+      <c r="D8" s="3">
         <v>0.783</v>
       </c>
       <c r="E8" s="3">
@@ -1223,10 +1223,10 @@
       <c r="B9" s="1">
         <v>0.753</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.585</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="D9" s="3">
         <v>0.775</v>
       </c>
       <c r="E9" s="3">
@@ -1240,10 +1240,10 @@
       <c r="B10" s="1">
         <v>0.719</v>
       </c>
-      <c r="C10" s="1">
-        <v>0.666</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" s="2">
+        <v>0.717</v>
+      </c>
+      <c r="D10" s="3">
         <v>0.718</v>
       </c>
       <c r="E10" s="3">
@@ -1257,10 +1257,10 @@
       <c r="B11" s="1">
         <v>0.542</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.603</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="2">
+        <v>0.507</v>
+      </c>
+      <c r="D11" s="3">
         <v>0.548</v>
       </c>
       <c r="E11" s="3">
@@ -1274,10 +1274,10 @@
       <c r="B12" s="1">
         <v>0.599</v>
       </c>
-      <c r="C12" s="1">
-        <v>0.567</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="2">
+        <v>0.588</v>
+      </c>
+      <c r="D12" s="3">
         <v>0.625</v>
       </c>
       <c r="E12" s="3">
@@ -1291,10 +1291,10 @@
       <c r="B13" s="1">
         <v>0.705</v>
       </c>
-      <c r="C13" s="1">
-        <v>0.627</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C13" s="2">
+        <v>0.723</v>
+      </c>
+      <c r="D13" s="3">
         <v>0.703</v>
       </c>
       <c r="E13" s="3">
@@ -1308,10 +1308,10 @@
       <c r="B14" s="1">
         <v>0.591</v>
       </c>
-      <c r="C14" s="1">
-        <v>0.551</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14" s="2">
+        <v>0.595</v>
+      </c>
+      <c r="D14" s="3">
         <v>0.714</v>
       </c>
       <c r="E14" s="3">
@@ -1325,10 +1325,10 @@
       <c r="B15" s="1">
         <v>0.789</v>
       </c>
-      <c r="C15" s="1">
-        <v>0.491</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C15" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="D15" s="3">
         <v>0.762</v>
       </c>
       <c r="E15" s="3">
@@ -1342,10 +1342,10 @@
       <c r="B16" s="1">
         <v>0.523</v>
       </c>
-      <c r="C16" s="1">
-        <v>0.617</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="C16" s="2">
+        <v>0.533</v>
+      </c>
+      <c r="D16" s="3">
         <v>0.624</v>
       </c>
       <c r="E16" s="3">
@@ -1359,10 +1359,10 @@
       <c r="B17" s="1">
         <v>0.814</v>
       </c>
-      <c r="C17" s="1">
-        <v>0.641</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C17" s="2">
+        <v>0.818</v>
+      </c>
+      <c r="D17" s="3">
         <v>0.819</v>
       </c>
       <c r="E17" s="3">
@@ -1376,10 +1376,10 @@
       <c r="B18" s="1">
         <v>0.583</v>
       </c>
-      <c r="C18" s="1">
-        <v>0.615</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C18" s="2">
+        <v>0.576</v>
+      </c>
+      <c r="D18" s="3">
         <v>0.642</v>
       </c>
       <c r="E18" s="3">
@@ -1393,10 +1393,10 @@
       <c r="B19" s="1">
         <v>0.493</v>
       </c>
-      <c r="C19" s="1">
-        <v>0.606</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C19" s="2">
+        <v>0.594</v>
+      </c>
+      <c r="D19" s="3">
         <v>0.64</v>
       </c>
       <c r="E19" s="3">
@@ -1410,10 +1410,10 @@
       <c r="B20" s="1">
         <v>0.617</v>
       </c>
-      <c r="C20" s="1">
-        <v>0.645</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C20" s="2">
+        <v>0.636</v>
+      </c>
+      <c r="D20" s="3">
         <v>0.67</v>
       </c>
       <c r="E20" s="3">
@@ -1427,10 +1427,10 @@
       <c r="B21" s="1">
         <v>0.595</v>
       </c>
-      <c r="C21" s="1">
-        <v>0.634</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="C21" s="2">
+        <v>0.612</v>
+      </c>
+      <c r="D21" s="3">
         <v>0.722</v>
       </c>
       <c r="E21" s="3">

--- a/result/compare_result/compare_result_0729/result-10%.xlsx
+++ b/result/compare_result/compare_result_0729/result-10%.xlsx
@@ -100,8 +100,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -112,17 +112,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,36 +135,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,25 +149,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,6 +210,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -228,22 +228,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,187 +265,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,11 +459,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,6 +498,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -494,6 +518,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,39 +548,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -564,145 +564,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,14 +1070,14 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="31.875" customWidth="1"/>
+    <col min="3" max="3" width="29.75" customWidth="1"/>
     <col min="4" max="4" width="28.25" customWidth="1"/>
-    <col min="5" max="5" width="56.25" customWidth="1"/>
+    <col min="5" max="5" width="63.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1108,9 +1108,9 @@
         <v>0.818</v>
       </c>
       <c r="D2" s="3">
-        <v>0.899</v>
-      </c>
-      <c r="E2" s="3">
+        <v>0.836</v>
+      </c>
+      <c r="E2" s="2">
         <v>0.864</v>
       </c>
     </row>
@@ -1125,9 +1125,9 @@
         <v>0.578</v>
       </c>
       <c r="D3" s="3">
-        <v>0.587</v>
-      </c>
-      <c r="E3" s="3">
+        <v>0.611</v>
+      </c>
+      <c r="E3" s="2">
         <v>0.587</v>
       </c>
     </row>
@@ -1142,9 +1142,9 @@
         <v>0.482</v>
       </c>
       <c r="D4" s="3">
-        <v>0.595</v>
-      </c>
-      <c r="E4" s="3">
+        <v>0.516</v>
+      </c>
+      <c r="E4" s="2">
         <v>0.721</v>
       </c>
     </row>
@@ -1159,9 +1159,9 @@
         <v>0.604</v>
       </c>
       <c r="D5" s="3">
-        <v>0.621</v>
-      </c>
-      <c r="E5" s="3">
+        <v>0.601</v>
+      </c>
+      <c r="E5" s="2">
         <v>0.626</v>
       </c>
     </row>
@@ -1176,9 +1176,9 @@
         <v>0.641</v>
       </c>
       <c r="D6" s="3">
-        <v>0.669</v>
-      </c>
-      <c r="E6" s="3">
+        <v>0.676</v>
+      </c>
+      <c r="E6" s="2">
         <v>0.567</v>
       </c>
     </row>
@@ -1193,9 +1193,9 @@
         <v>0.712</v>
       </c>
       <c r="D7" s="3">
-        <v>0.649</v>
-      </c>
-      <c r="E7" s="3">
+        <v>0.714</v>
+      </c>
+      <c r="E7" s="2">
         <v>0.671</v>
       </c>
     </row>
@@ -1210,9 +1210,9 @@
         <v>0.738</v>
       </c>
       <c r="D8" s="3">
-        <v>0.783</v>
-      </c>
-      <c r="E8" s="3">
+        <v>0.705</v>
+      </c>
+      <c r="E8" s="2">
         <v>0.672</v>
       </c>
     </row>
@@ -1227,9 +1227,9 @@
         <v>0.73</v>
       </c>
       <c r="D9" s="3">
-        <v>0.775</v>
-      </c>
-      <c r="E9" s="3">
+        <v>0.726</v>
+      </c>
+      <c r="E9" s="2">
         <v>0.756</v>
       </c>
     </row>
@@ -1244,9 +1244,9 @@
         <v>0.717</v>
       </c>
       <c r="D10" s="3">
-        <v>0.718</v>
-      </c>
-      <c r="E10" s="3">
+        <v>0.724</v>
+      </c>
+      <c r="E10" s="2">
         <v>0.74</v>
       </c>
     </row>
@@ -1261,9 +1261,9 @@
         <v>0.507</v>
       </c>
       <c r="D11" s="3">
-        <v>0.548</v>
-      </c>
-      <c r="E11" s="3">
+        <v>0.549</v>
+      </c>
+      <c r="E11" s="2">
         <v>0.565</v>
       </c>
     </row>
@@ -1278,9 +1278,9 @@
         <v>0.588</v>
       </c>
       <c r="D12" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="E12" s="3">
+        <v>0.718</v>
+      </c>
+      <c r="E12" s="2">
         <v>0.546</v>
       </c>
     </row>
@@ -1295,9 +1295,9 @@
         <v>0.723</v>
       </c>
       <c r="D13" s="3">
-        <v>0.703</v>
-      </c>
-      <c r="E13" s="3">
+        <v>0.736</v>
+      </c>
+      <c r="E13" s="2">
         <v>0.684</v>
       </c>
     </row>
@@ -1312,9 +1312,9 @@
         <v>0.595</v>
       </c>
       <c r="D14" s="3">
-        <v>0.714</v>
-      </c>
-      <c r="E14" s="3">
+        <v>0.633</v>
+      </c>
+      <c r="E14" s="2">
         <v>0.519</v>
       </c>
     </row>
@@ -1329,9 +1329,9 @@
         <v>0.79</v>
       </c>
       <c r="D15" s="3">
-        <v>0.762</v>
-      </c>
-      <c r="E15" s="3">
+        <v>0.785</v>
+      </c>
+      <c r="E15" s="2">
         <v>0.765</v>
       </c>
     </row>
@@ -1346,9 +1346,9 @@
         <v>0.533</v>
       </c>
       <c r="D16" s="3">
-        <v>0.624</v>
-      </c>
-      <c r="E16" s="3">
+        <v>0.568</v>
+      </c>
+      <c r="E16" s="2">
         <v>0.603</v>
       </c>
     </row>
@@ -1363,9 +1363,9 @@
         <v>0.818</v>
       </c>
       <c r="D17" s="3">
-        <v>0.819</v>
-      </c>
-      <c r="E17" s="3">
+        <v>0.816</v>
+      </c>
+      <c r="E17" s="2">
         <v>0.801</v>
       </c>
     </row>
@@ -1380,9 +1380,9 @@
         <v>0.576</v>
       </c>
       <c r="D18" s="3">
-        <v>0.642</v>
-      </c>
-      <c r="E18" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E18" s="2">
         <v>0.648</v>
       </c>
     </row>
@@ -1397,9 +1397,9 @@
         <v>0.594</v>
       </c>
       <c r="D19" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="E19" s="3">
+        <v>0.581</v>
+      </c>
+      <c r="E19" s="2">
         <v>0.511</v>
       </c>
     </row>
@@ -1414,9 +1414,9 @@
         <v>0.636</v>
       </c>
       <c r="D20" s="3">
-        <v>0.67</v>
-      </c>
-      <c r="E20" s="3">
+        <v>0.668</v>
+      </c>
+      <c r="E20" s="2">
         <v>0.627</v>
       </c>
     </row>
@@ -1431,9 +1431,9 @@
         <v>0.612</v>
       </c>
       <c r="D21" s="3">
-        <v>0.722</v>
-      </c>
-      <c r="E21" s="3">
+        <v>0.631</v>
+      </c>
+      <c r="E21" s="2">
         <v>0.614</v>
       </c>
     </row>
